--- a/ひな形シナリオ作成テンプレ.xlsx
+++ b/ひな形シナリオ作成テンプレ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://p3zd-my.sharepoint.com/personal/makoto_kamada_725_p3zd_onmicrosoft_com/Documents/デスクトップ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="8_{01B9AB0E-A6AD-48F0-9C49-859431D4CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6C7839-6AD7-4EC4-AC12-2A2ACD9FCFCB}"/>
+  <xr:revisionPtr revIDLastSave="650" documentId="8_{01B9AB0E-A6AD-48F0-9C49-859431D4CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90B16AA2-D744-4CAB-BAF7-E8FF0F5E27B1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4F10883-B658-421E-A635-B666EBED122E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D4F10883-B658-421E-A635-B666EBED122E}"/>
   </bookViews>
   <sheets>
     <sheet name="ひな形シナリオ" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1477,7 +1477,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1611,336 +1611,332 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="2" t="str">
         <f>IF(E3="","",IF(E3="グループ",VALUE(LEFT(A2,1))+1,IF(ISERROR(FIND("-",A2)),A2&amp;"-1",LEFT(A2,FIND("-",A2))&amp;VALUE(MID(A2,FIND("-",A2)+1,99))+1)))</f>
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H3" s="3"/>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H3" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,3,FALSE)))</f>
+        <v/>
+      </c>
       <c r="I3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q3" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E3&amp;$F3,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A29" si="0">IF(E4="","",IF(E4="グループ",VALUE(LEFT(A3,1))+1,IF(ISERROR(FIND("-",A3)),A3&amp;"-1",LEFT(A3,FIND("-",A3))&amp;VALUE(MID(A3,FIND("-",A3)+1,99))+1)))</f>
-        <v>2-1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>74</v>
+      <c r="G4" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,3,FALSE)))</f>
+        <v/>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q4" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E4&amp;$F4,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2-2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>78</v>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,4,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,5,FALSE)))</f>
+        <v/>
       </c>
       <c r="K5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q5" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E5&amp;$F5,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2-3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="3"/>
+      <c r="G6" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H6" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,4,FALSE)))</f>
+        <v/>
+      </c>
       <c r="J6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q6" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E6&amp;$F6,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2-4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>83</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>82</v>
+      <c r="G7" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H7" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,4,FALSE)))</f>
+        <v/>
       </c>
       <c r="J7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q7" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E7&amp;$F7,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>2-5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,2,FALSE)))</f>
-        <v/>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" s="3"/>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,2,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,3,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,4,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,5,FALSE)))</f>
+        <v/>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,6,FALSE)))</f>
+        <v/>
+      </c>
       <c r="L8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q8" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E8&amp;$F8,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -1955,47 +1951,47 @@
       <c r="E9" s="4"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q9" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E9&amp;$F9,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2010,47 +2006,47 @@
       <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q10" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E10&amp;$F10,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2065,47 +2061,47 @@
       <c r="E11" s="4"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q11" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E11&amp;$F11,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2120,47 +2116,47 @@
       <c r="E12" s="4"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q12" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E12&amp;$F12,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2175,47 +2171,47 @@
       <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q13" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E13&amp;$F13,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2230,47 +2226,47 @@
       <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q14" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E14&amp;$F14,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2285,47 +2281,47 @@
       <c r="E15" s="4"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q15" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E15&amp;$F15,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2340,47 +2336,47 @@
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q16" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E16&amp;$F16,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2395,47 +2391,47 @@
       <c r="E17" s="4"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E17&amp;$F17,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2450,47 +2446,47 @@
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E18&amp;$F18,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2505,47 +2501,47 @@
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E19&amp;$F19,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2560,47 +2556,47 @@
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E20&amp;$F20,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2615,47 +2611,47 @@
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E21&amp;$F21,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2670,47 +2666,47 @@
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E22&amp;$F22,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2725,47 +2721,47 @@
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E23&amp;$F23,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2780,47 +2776,47 @@
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E24&amp;$F24,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2835,47 +2831,47 @@
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q25" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E25&amp;$F25,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2890,47 +2886,47 @@
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q26" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E26&amp;$F26,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -2945,47 +2941,47 @@
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q27" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E27&amp;$F27,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3000,47 +2996,47 @@
       <c r="E28" s="4"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q28" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E28&amp;$F28,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3055,47 +3051,47 @@
       <c r="E29" s="4"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,2,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,2,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,2,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,2,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,2,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,2,FALSE)))</f>
         <v/>
       </c>
       <c r="H29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,3,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,3,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,3,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,3,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,3,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,3,FALSE)))</f>
         <v/>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,4,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,4,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,4,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,4,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,4,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,4,FALSE)))</f>
         <v/>
       </c>
       <c r="J29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,5,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,5,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,5,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,5,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,5,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,5,FALSE)))</f>
         <v/>
       </c>
       <c r="K29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,6,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,6,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,6,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,6,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,6,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,6,FALSE)))</f>
         <v/>
       </c>
       <c r="L29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,7,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,7,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,7,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,7,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,7,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,7,FALSE)))</f>
         <v/>
       </c>
       <c r="M29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,8,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,8,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,8,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,8,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,8,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,8,FALSE)))</f>
         <v/>
       </c>
       <c r="N29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,9,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,9,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,9,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,9,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,9,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,9,FALSE)))</f>
         <v/>
       </c>
       <c r="O29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,10,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,10,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,10,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,10,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,10,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,10,FALSE)))</f>
         <v/>
       </c>
       <c r="P29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,11,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,11,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,11,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,11,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,11,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,11,FALSE)))</f>
         <v/>
       </c>
       <c r="Q29" s="3" t="str">
-        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,12,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,12,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$15,12,FALSE)))</f>
+        <f>IF(ISNA(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,12,FALSE)),"",IF(VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,12,FALSE)="","",VLOOKUP($E29&amp;$F29,マスタ!$G$2:$R$14,12,FALSE)))</f>
         <v/>
       </c>
     </row>
@@ -3777,7 +3773,7 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
